--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_MCPS_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_MCPS_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.6040830742254613</v>
+        <v>0.5381240820189352</v>
       </c>
       <c r="D2">
-        <v>0.4883195868994707</v>
+        <v>0.5082764740909798</v>
       </c>
       <c r="E2">
-        <v>0.9529816844819772</v>
+        <v>0.9609948908993071</v>
       </c>
       <c r="F2">
-        <v>0.2415575613887997</v>
+        <v>0.1621277125216749</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6040830742254613</v>
+        <v>0.5381240820189352</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1082432976767038</v>
+        <v>0.1039655594518818</v>
       </c>
       <c r="E3">
-        <v>0.5626709036299924</v>
+        <v>0.5719463725390876</v>
       </c>
       <c r="F3">
-        <v>0.3146947971160099</v>
+        <v>0.267637115530216</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4883195868994707</v>
+        <v>0.5082764740909798</v>
       </c>
       <c r="C4">
-        <v>0.1082432976767038</v>
+        <v>0.1039655594518818</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.299049069196859</v>
+        <v>0.3058389705629412</v>
       </c>
       <c r="F4">
-        <v>0.02615729354249052</v>
+        <v>0.01710459219489247</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9529816844819772</v>
+        <v>0.9609948908993071</v>
       </c>
       <c r="C5">
-        <v>0.5626709036299924</v>
+        <v>0.5719463725390876</v>
       </c>
       <c r="D5">
-        <v>0.299049069196859</v>
+        <v>0.3058389705629412</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1970111224547499</v>
+        <v>0.2330005773306945</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2415575613887997</v>
+        <v>0.1621277125216749</v>
       </c>
       <c r="C6">
-        <v>0.3146947971160099</v>
+        <v>0.267637115530216</v>
       </c>
       <c r="D6">
-        <v>0.02615729354249052</v>
+        <v>0.01710459219489247</v>
       </c>
       <c r="E6">
-        <v>0.1970111224547499</v>
+        <v>0.2330005773306945</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.5188814128482805</v>
+        <v>-0.6311295421349024</v>
       </c>
       <c r="D2">
-        <v>0.6935197537327764</v>
+        <v>0.6788889858102605</v>
       </c>
       <c r="E2">
-        <v>-0.05899375607309645</v>
+        <v>-0.04978773092889133</v>
       </c>
       <c r="F2">
-        <v>-1.172553874698193</v>
+        <v>-1.475818022211977</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5188814128482805</v>
+        <v>0.6311295421349024</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.609145770973048</v>
+        <v>1.738997072023389</v>
       </c>
       <c r="E3">
-        <v>0.5792824842395635</v>
+        <v>0.5787586386040297</v>
       </c>
       <c r="F3">
-        <v>-1.006476012470203</v>
+        <v>-1.154462259052182</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.6935197537327764</v>
+        <v>-0.6788889858102605</v>
       </c>
       <c r="C4">
-        <v>-1.609145770973048</v>
+        <v>-1.738997072023389</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.039602525221733</v>
+        <v>-1.062853138435228</v>
       </c>
       <c r="F4">
-        <v>-2.230790124359605</v>
+        <v>-2.704518992468954</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05899375607309645</v>
+        <v>0.04978773092889133</v>
       </c>
       <c r="C5">
-        <v>-0.5792824842395635</v>
+        <v>-0.5787586386040297</v>
       </c>
       <c r="D5">
-        <v>1.039602525221733</v>
+        <v>1.062853138435228</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.291910461233294</v>
+        <v>-1.24659585269093</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.172553874698193</v>
+        <v>1.475818022211977</v>
       </c>
       <c r="C6">
-        <v>1.006476012470203</v>
+        <v>1.154462259052182</v>
       </c>
       <c r="D6">
-        <v>2.230790124359605</v>
+        <v>2.704518992468954</v>
       </c>
       <c r="E6">
-        <v>1.291910461233294</v>
+        <v>1.24659585269093</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_MCPS_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_MCPS_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.5381240820189352</v>
+        <v>0.5786990926392483</v>
       </c>
       <c r="D2">
-        <v>0.5082764740909798</v>
+        <v>0.8972442268995682</v>
       </c>
       <c r="E2">
-        <v>0.9609948908993071</v>
+        <v>0.5210085692547817</v>
       </c>
       <c r="F2">
-        <v>0.1621277125216749</v>
+        <v>0.9611028571323634</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5381240820189352</v>
+        <v>0.5786990926392483</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1039655594518818</v>
+        <v>0.7088010936658005</v>
       </c>
       <c r="E3">
-        <v>0.5719463725390876</v>
+        <v>0.3419164694609025</v>
       </c>
       <c r="F3">
-        <v>0.267637115530216</v>
+        <v>0.6960392089999914</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5082764740909798</v>
+        <v>0.8972442268995682</v>
       </c>
       <c r="C4">
-        <v>0.1039655594518818</v>
+        <v>0.7088010936658005</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.3058389705629412</v>
+        <v>0.294511816270552</v>
       </c>
       <c r="F4">
-        <v>0.01710459219489247</v>
+        <v>0.8730121820969194</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9609948908993071</v>
+        <v>0.5210085692547817</v>
       </c>
       <c r="C5">
-        <v>0.5719463725390876</v>
+        <v>0.3419164694609025</v>
       </c>
       <c r="D5">
-        <v>0.3058389705629412</v>
+        <v>0.294511816270552</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.2330005773306945</v>
+        <v>0.3751317801893581</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1621277125216749</v>
+        <v>0.9611028571323634</v>
       </c>
       <c r="C6">
-        <v>0.267637115530216</v>
+        <v>0.6960392089999914</v>
       </c>
       <c r="D6">
-        <v>0.01710459219489247</v>
+        <v>0.8730121820969194</v>
       </c>
       <c r="E6">
-        <v>0.2330005773306945</v>
+        <v>0.3751317801893581</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.6311295421349024</v>
+        <v>0.5636410670098013</v>
       </c>
       <c r="D2">
-        <v>0.6788889858102605</v>
+        <v>0.1306439705147093</v>
       </c>
       <c r="E2">
-        <v>-0.04978773092889133</v>
+        <v>-0.6522320128321253</v>
       </c>
       <c r="F2">
-        <v>-1.475818022211977</v>
+        <v>-0.04932819273535976</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6311295421349024</v>
+        <v>-0.5636410670098013</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.738997072023389</v>
+        <v>-0.3783443126751177</v>
       </c>
       <c r="E3">
-        <v>0.5787586386040297</v>
+        <v>-0.9713845422501913</v>
       </c>
       <c r="F3">
-        <v>-1.154462259052182</v>
+        <v>-0.3958352731389692</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.6788889858102605</v>
+        <v>-0.1306439705147093</v>
       </c>
       <c r="C4">
-        <v>-1.738997072023389</v>
+        <v>0.3783443126751177</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.062853138435228</v>
+        <v>-1.073885983551392</v>
       </c>
       <c r="F4">
-        <v>-2.704518992468954</v>
+        <v>-0.1617074193322929</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.04978773092889133</v>
+        <v>0.6522320128321253</v>
       </c>
       <c r="C5">
-        <v>-0.5787586386040297</v>
+        <v>0.9713845422501913</v>
       </c>
       <c r="D5">
-        <v>1.062853138435228</v>
+        <v>1.073885983551392</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.24659585269093</v>
+        <v>0.9052668770778399</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.475818022211977</v>
+        <v>0.04932819273535976</v>
       </c>
       <c r="C6">
-        <v>1.154462259052182</v>
+        <v>0.3958352731389692</v>
       </c>
       <c r="D6">
-        <v>2.704518992468954</v>
+        <v>0.1617074193322929</v>
       </c>
       <c r="E6">
-        <v>1.24659585269093</v>
+        <v>-0.9052668770778399</v>
       </c>
       <c r="F6">
         <v>0</v>
